--- a/4. cosine similarity (synonym)/rekap.xlsx
+++ b/4. cosine similarity (synonym)/rekap.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="128">
   <si>
     <t>term</t>
   </si>
@@ -439,6 +439,9 @@
   </si>
   <si>
     <t>average</t>
+  </si>
+  <si>
+    <t>over average</t>
   </si>
 </sst>
 </file>
@@ -548,7 +551,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -591,11 +594,46 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="10">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
       <fill>
@@ -621,24 +659,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -723,11 +743,11 @@
     <tableColumn id="4" name="ref" dataDxfId="7"/>
     <tableColumn id="2" name="term_stemmed" dataDxfId="6"/>
     <tableColumn id="6" name="ref_stemmed" dataDxfId="5"/>
-    <tableColumn id="7" name="tf_idf" dataDxfId="4"/>
-    <tableColumn id="8" name="widf" dataDxfId="3"/>
-    <tableColumn id="9" name="midf" dataDxfId="2"/>
-    <tableColumn id="1" name="keterangan" dataDxfId="1"/>
-    <tableColumn id="5" name="lsa.colorado.edu (general 1st year college)" dataDxfId="0"/>
+    <tableColumn id="7" name="tf_idf" dataDxfId="1"/>
+    <tableColumn id="8" name="widf" dataDxfId="4"/>
+    <tableColumn id="9" name="midf" dataDxfId="0"/>
+    <tableColumn id="1" name="keterangan" dataDxfId="3"/>
+    <tableColumn id="5" name="lsa.colorado.edu (general 1st year college)" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1022,13 +1042,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5:K6"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="11" customWidth="1"/>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="2" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="27.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="41.7109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -1076,13 +1099,13 @@
         <v>40</v>
       </c>
       <c r="E2" s="38">
-        <v>-9.4280927282041613E-2</v>
+        <v>0.22527613166524812</v>
       </c>
       <c r="F2" s="38">
         <v>0.33499627798191001</v>
       </c>
-      <c r="G2" s="38">
-        <v>2.7613166524810572E-4</v>
+      <c r="G2" s="42">
+        <v>0.13071907271795841</v>
       </c>
       <c r="H2" s="8" t="s">
         <v>102</v>
@@ -1105,13 +1128,13 @@
         <v>42</v>
       </c>
       <c r="E3" s="38">
-        <v>0.1675787413825249</v>
+        <v>0.32094181469590222</v>
       </c>
       <c r="F3" s="38">
         <v>0.40392496752780083</v>
       </c>
-      <c r="G3" s="38">
-        <v>0.12094181469590221</v>
+      <c r="G3" s="42">
+        <v>0.39257874138252491</v>
       </c>
       <c r="H3" s="8" t="s">
         <v>102</v>
@@ -1134,13 +1157,13 @@
         <v>18</v>
       </c>
       <c r="E4" s="38">
-        <v>0.14281476636777959</v>
+        <v>0.27422161342487783</v>
       </c>
       <c r="F4" s="38">
         <v>0.4055523613186095</v>
       </c>
-      <c r="G4" s="38">
-        <v>7.4221613424877833E-2</v>
+      <c r="G4" s="42">
+        <v>0.3678147663677796</v>
       </c>
       <c r="H4" s="8" t="s">
         <v>102</v>
@@ -1163,13 +1186,13 @@
         <v>14</v>
       </c>
       <c r="E5" s="38">
-        <v>0.19128582868289579</v>
+        <v>0.27820600176533311</v>
       </c>
       <c r="F5" s="38">
         <v>0.32701645419705427</v>
       </c>
-      <c r="G5" s="38">
-        <v>7.82060017653331E-2</v>
+      <c r="G5" s="42">
+        <v>0.41628582868289576</v>
       </c>
       <c r="H5" s="8" t="s">
         <v>102</v>
@@ -1192,13 +1215,13 @@
         <v>83</v>
       </c>
       <c r="E6" s="38">
-        <v>-0.1061174083802757</v>
+        <v>0.15742413965266747</v>
       </c>
       <c r="F6" s="38">
         <v>0.30210748057954451</v>
       </c>
-      <c r="G6" s="38">
-        <v>-4.2575860347332538E-2</v>
+      <c r="G6" s="42">
+        <v>0.11888259161972431</v>
       </c>
       <c r="H6" s="8" t="s">
         <v>102</v>
@@ -1221,13 +1244,13 @@
         <v>44</v>
       </c>
       <c r="E7" s="38">
-        <v>0.166090325043907</v>
+        <v>0.34075025154075633</v>
       </c>
       <c r="F7" s="38">
         <v>0.30540689727941822</v>
       </c>
-      <c r="G7" s="38">
-        <v>0.14075025154075629</v>
+      <c r="G7" s="42">
+        <v>0.39109032504390701</v>
       </c>
       <c r="H7" s="8" t="s">
         <v>102</v>
@@ -1250,13 +1273,13 @@
         <v>32</v>
       </c>
       <c r="E8" s="38">
-        <v>0.1675787413825249</v>
+        <v>0.32094181469590222</v>
       </c>
       <c r="F8" s="38">
         <v>0.40392496752780083</v>
       </c>
-      <c r="G8" s="38">
-        <v>0.12094181469590221</v>
+      <c r="G8" s="42">
+        <v>0.39257874138252491</v>
       </c>
       <c r="H8" s="8" t="s">
         <v>102</v>
@@ -1279,13 +1302,13 @@
         <v>55</v>
       </c>
       <c r="E9" s="39">
-        <v>7.8277154127410292E-2</v>
+        <v>0.37454056500846533</v>
       </c>
       <c r="F9" s="39">
         <v>0.36247302837082968</v>
       </c>
-      <c r="G9" s="39">
-        <v>0.17454056500846529</v>
+      <c r="G9" s="43">
+        <v>0.3032771541274103</v>
       </c>
       <c r="H9" s="7" t="s">
         <v>104</v>
@@ -1308,13 +1331,13 @@
         <v>89</v>
       </c>
       <c r="E10" s="39">
-        <v>7.8277154127410292E-2</v>
+        <v>0.37454056500846533</v>
       </c>
       <c r="F10" s="39">
         <v>0.36247302837082968</v>
       </c>
-      <c r="G10" s="39">
-        <v>0.17454056500846529</v>
+      <c r="G10" s="43">
+        <v>0.3032771541274103</v>
       </c>
       <c r="H10" s="7" t="s">
         <v>104</v>
@@ -1337,13 +1360,13 @@
         <v>54</v>
       </c>
       <c r="E11" s="39">
-        <v>-7.9518513303392276E-4</v>
+        <v>2.0998889608147497E-2</v>
       </c>
       <c r="F11" s="39">
         <v>0.38024041628654448</v>
       </c>
-      <c r="G11" s="39">
-        <v>-0.17900111039185251</v>
+      <c r="G11" s="43">
+        <v>0.22420481486696608</v>
       </c>
       <c r="H11" s="7" t="s">
         <v>105</v>
@@ -1366,13 +1389,13 @@
         <v>53</v>
       </c>
       <c r="E12" s="39">
-        <v>-7.9518513303392276E-4</v>
+        <v>2.0998889608147497E-2</v>
       </c>
       <c r="F12" s="39">
         <v>0.38024041628654448</v>
       </c>
-      <c r="G12" s="39">
-        <v>-0.17900111039185251</v>
+      <c r="G12" s="43">
+        <v>0.22420481486696608</v>
       </c>
       <c r="H12" s="7" t="s">
         <v>105</v>
@@ -1380,8 +1403,6 @@
       <c r="I12" s="34">
         <v>0.35</v>
       </c>
-      <c r="L12" s="32"/>
-      <c r="M12" s="32"/>
       <c r="N12" s="32"/>
       <c r="O12" s="32"/>
       <c r="P12" s="32"/>
@@ -1400,13 +1421,13 @@
         <v>76</v>
       </c>
       <c r="E13" s="39">
-        <v>5.9569972575414017E-3</v>
+        <v>0.18521861720939692</v>
       </c>
       <c r="F13" s="39">
         <v>0.41606698143428389</v>
       </c>
-      <c r="G13" s="39">
-        <v>-1.4781382790603091E-2</v>
+      <c r="G13" s="43">
+        <v>0.2309569972575414</v>
       </c>
       <c r="H13" s="7" t="s">
         <v>105</v>
@@ -1414,8 +1435,6 @@
       <c r="I13" s="34">
         <v>0.32</v>
       </c>
-      <c r="L13" s="32"/>
-      <c r="M13" s="32"/>
       <c r="N13" s="32"/>
       <c r="O13" s="32"/>
       <c r="P13" s="32"/>
@@ -1434,13 +1453,13 @@
         <v>73</v>
       </c>
       <c r="E14" s="39">
-        <v>5.9569972575414017E-3</v>
+        <v>0.18521861720939692</v>
       </c>
       <c r="F14" s="39">
         <v>0.41606698143428389</v>
       </c>
-      <c r="G14" s="39">
-        <v>-1.4781382790603091E-2</v>
+      <c r="G14" s="43">
+        <v>0.2309569972575414</v>
       </c>
       <c r="H14" s="7" t="s">
         <v>105</v>
@@ -1463,13 +1482,13 @@
         <v>21</v>
       </c>
       <c r="E15" s="40">
-        <v>2.2259476193971849E-2</v>
+        <v>9.5336791588404718E-2</v>
       </c>
       <c r="F15" s="40">
         <v>0.35157051152259949</v>
       </c>
-      <c r="G15" s="40">
-        <v>-0.10466320841159529</v>
+      <c r="G15" s="44">
+        <v>0.24725947619397184</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>103</v>
@@ -1492,13 +1511,13 @@
         <v>81</v>
       </c>
       <c r="E16" s="40">
-        <v>-2.071371810198238E-2</v>
+        <v>0.23264777634194034</v>
       </c>
       <c r="F16" s="40">
         <v>0.30108074061756562</v>
       </c>
-      <c r="G16" s="40">
-        <v>3.2647776341940341E-2</v>
+      <c r="G16" s="44">
+        <v>0.20428628189801762</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>103</v>
@@ -1521,13 +1540,13 @@
         <v>31</v>
       </c>
       <c r="E17" s="40">
-        <v>9.0562354588943975E-2</v>
+        <v>-4.9017728435801294E-2</v>
       </c>
       <c r="F17" s="40">
         <v>0.34570506631299819</v>
       </c>
-      <c r="G17" s="40">
-        <v>-0.24901772843580131</v>
+      <c r="G17" s="44">
+        <v>0.31556235458894399</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>103</v>
@@ -1550,13 +1569,13 @@
         <v>31</v>
       </c>
       <c r="E18" s="40">
-        <v>9.0562354588943975E-2</v>
+        <v>-4.9017728435801294E-2</v>
       </c>
       <c r="F18" s="40">
         <v>0.34570506631299819</v>
       </c>
-      <c r="G18" s="40">
-        <v>-0.24901772843580131</v>
+      <c r="G18" s="44">
+        <v>0.31556235458894399</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>103</v>
@@ -1579,13 +1598,13 @@
         <v>31</v>
       </c>
       <c r="E19" s="40">
-        <v>9.0562354588943975E-2</v>
+        <v>-4.9017728435801294E-2</v>
       </c>
       <c r="F19" s="40">
         <v>0.34570506631299819</v>
       </c>
-      <c r="G19" s="40">
-        <v>-0.24901772843580131</v>
+      <c r="G19" s="44">
+        <v>0.31556235458894399</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>103</v>
@@ -1608,13 +1627,13 @@
         <v>78</v>
       </c>
       <c r="E20" s="40">
-        <v>1.8318987733064229E-2</v>
+        <v>0.1623552284257633</v>
       </c>
       <c r="F20" s="40">
         <v>0.33615996052408392</v>
       </c>
-      <c r="G20" s="40">
-        <v>-3.76447715742367E-2</v>
+      <c r="G20" s="44">
+        <v>0.24331898773306423</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>103</v>
@@ -1637,13 +1656,13 @@
         <v>92</v>
       </c>
       <c r="E21" s="40">
-        <v>0.14170594365112821</v>
+        <v>0.29392440068652137</v>
       </c>
       <c r="F21" s="40">
         <v>0.32038959294216018</v>
       </c>
-      <c r="G21" s="40">
-        <v>9.3924400686521331E-2</v>
+      <c r="G21" s="44">
+        <v>0.36670594365112819</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>103</v>
@@ -1666,13 +1685,13 @@
         <v>100</v>
       </c>
       <c r="E22" s="40">
-        <v>0.17841347297768109</v>
+        <v>0.32478303264318981</v>
       </c>
       <c r="F22" s="40">
         <v>0.30242914392644771</v>
       </c>
-      <c r="G22" s="40">
-        <v>0.1247830326431898</v>
+      <c r="G22" s="44">
+        <v>0.4034134729776811</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>103</v>
@@ -1695,13 +1714,13 @@
         <v>25</v>
       </c>
       <c r="E23" s="41">
-        <v>3.2930034746537849E-2</v>
+        <v>0.2414875544200232</v>
       </c>
       <c r="F23" s="41">
         <v>0.4535513222024582</v>
       </c>
-      <c r="G23" s="41">
-        <v>4.14875544200232E-2</v>
+      <c r="G23" s="45">
+        <v>0.25793003474653786</v>
       </c>
       <c r="H23" s="5"/>
       <c r="I23" s="36">
@@ -1722,13 +1741,13 @@
         <v>11</v>
       </c>
       <c r="E24" s="41">
-        <v>0.13908720608402561</v>
+        <v>0.26775349817010918</v>
       </c>
       <c r="F24" s="41">
         <v>0.46419540891817451</v>
       </c>
-      <c r="G24" s="41">
-        <v>6.77534981701092E-2</v>
+      <c r="G24" s="46">
+        <v>0.36408720608402562</v>
       </c>
       <c r="H24" s="5"/>
       <c r="I24" s="37">
@@ -1749,13 +1768,13 @@
         <v>36</v>
       </c>
       <c r="E25" s="41">
-        <v>0.13289585114745411</v>
+        <v>0.27574173400609353</v>
       </c>
       <c r="F25" s="41">
         <v>0.3451188243371846</v>
       </c>
-      <c r="G25" s="41">
-        <v>7.574173400609352E-2</v>
+      <c r="G25" s="45">
+        <v>0.35789585114745415</v>
       </c>
       <c r="H25" s="5"/>
       <c r="I25" s="36">
@@ -1776,13 +1795,13 @@
         <v>45</v>
       </c>
       <c r="E26" s="41">
-        <v>0.3062384221241079</v>
+        <v>0.37978490229861572</v>
       </c>
       <c r="F26" s="41">
         <v>1.2312926743043479E-2</v>
       </c>
-      <c r="G26" s="41">
-        <v>0.17978490229861571</v>
+      <c r="G26" s="46">
+        <v>0.3062384221241079</v>
       </c>
       <c r="H26" s="5"/>
       <c r="I26" s="37">
@@ -1803,13 +1822,13 @@
         <v>33</v>
       </c>
       <c r="E27" s="41">
-        <v>6.3998043009368594E-2</v>
+        <v>0.26996016294285446</v>
       </c>
       <c r="F27" s="41">
         <v>0.30220115003942599</v>
       </c>
-      <c r="G27" s="41">
-        <v>6.9960162942854454E-2</v>
+      <c r="G27" s="45">
+        <v>0.2889980430093686</v>
       </c>
       <c r="H27" s="5"/>
       <c r="I27" s="36">
@@ -1830,13 +1849,13 @@
         <v>48</v>
       </c>
       <c r="E28" s="41">
-        <v>0.39201531574455251</v>
+        <v>0.19437028992771718</v>
       </c>
       <c r="F28" s="41">
         <v>0.1593809412435811</v>
       </c>
-      <c r="G28" s="41">
-        <v>-5.6297100722828364E-3</v>
+      <c r="G28" s="46">
+        <v>0.39201531574455251</v>
       </c>
       <c r="H28" s="5"/>
       <c r="I28" s="37">
@@ -1857,13 +1876,13 @@
         <v>68</v>
       </c>
       <c r="E29" s="41">
-        <v>0.137775833701547</v>
+        <v>0.26792363058500362</v>
       </c>
       <c r="F29" s="41">
         <v>0.35521372054389327</v>
       </c>
-      <c r="G29" s="41">
-        <v>6.79236305850036E-2</v>
+      <c r="G29" s="45">
+        <v>0.36277583370154698</v>
       </c>
       <c r="H29" s="5"/>
       <c r="I29" s="36">
@@ -1884,13 +1903,13 @@
         <v>37</v>
       </c>
       <c r="E30" s="41">
-        <v>0.1192559052343935</v>
+        <v>0.29892303604423331</v>
       </c>
       <c r="F30" s="41">
         <v>0.49694319202234982</v>
       </c>
-      <c r="G30" s="41">
-        <v>9.8923036044233331E-2</v>
+      <c r="G30" s="46">
+        <v>0.34425590523439353</v>
       </c>
       <c r="H30" s="5"/>
       <c r="I30" s="37">
@@ -1911,13 +1930,13 @@
         <v>7</v>
       </c>
       <c r="E31" s="41">
-        <v>-0.1797375970998038</v>
+        <v>0.1739996381182409</v>
       </c>
       <c r="F31" s="41">
         <v>0.3613342294237038</v>
       </c>
-      <c r="G31" s="41">
-        <v>-2.600036188175911E-2</v>
+      <c r="G31" s="45">
+        <v>4.5262402900196202E-2</v>
       </c>
       <c r="H31" s="5"/>
       <c r="I31" s="36">
@@ -1938,47 +1957,47 @@
         <v>95</v>
       </c>
       <c r="E32" s="41">
-        <v>0.24623991341314261</v>
+        <v>0.3371787419043924</v>
       </c>
       <c r="F32" s="41">
         <v>0.47531813125276928</v>
       </c>
-      <c r="G32" s="41">
-        <v>0.13717874190439239</v>
+      <c r="G32" s="46">
+        <v>0.47123991341314264</v>
       </c>
       <c r="H32" s="5"/>
       <c r="I32" s="37">
         <v>0.7</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C33" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="D33" s="6" t="s">
+      <c r="D33" s="19" t="s">
         <v>70</v>
       </c>
       <c r="E33" s="41">
-        <v>-6.7026006634540461E-2</v>
+        <v>0.14497416262371421</v>
       </c>
       <c r="F33" s="41">
         <v>0.32462055860461903</v>
       </c>
-      <c r="G33" s="41">
-        <v>-5.5025837376285802E-2</v>
+      <c r="G33" s="45">
+        <v>0.15797399336545953</v>
       </c>
       <c r="H33" s="5"/>
       <c r="I33" s="36">
         <v>0.53</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="18" t="s">
         <v>59</v>
       </c>
@@ -1992,20 +2011,20 @@
         <v>91</v>
       </c>
       <c r="E34" s="41">
-        <v>0.32896990976353968</v>
+        <v>0.30709400626093164</v>
       </c>
       <c r="F34" s="41">
         <v>0.18894762486251851</v>
       </c>
-      <c r="G34" s="41">
-        <v>0.1070940062609316</v>
+      <c r="G34" s="46">
+        <v>0.32896990976353968</v>
       </c>
       <c r="H34" s="5"/>
       <c r="I34" s="37">
         <v>0.21</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>63</v>
       </c>
@@ -2019,20 +2038,20 @@
         <v>58</v>
       </c>
       <c r="E35" s="41">
-        <v>6.3998043009368594E-2</v>
+        <v>0.26996016294285446</v>
       </c>
       <c r="F35" s="41">
         <v>0.30220115003942599</v>
       </c>
-      <c r="G35" s="41">
-        <v>6.9960162942854454E-2</v>
+      <c r="G35" s="45">
+        <v>0.2889980430093686</v>
       </c>
       <c r="H35" s="5"/>
       <c r="I35" s="36">
         <v>0.16</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="18" t="s">
         <v>56</v>
       </c>
@@ -2046,20 +2065,20 @@
         <v>47</v>
       </c>
       <c r="E36" s="41">
-        <v>0.1500816335875482</v>
+        <v>0.27260095478826124</v>
       </c>
       <c r="F36" s="41">
         <v>0.31301956921793039</v>
       </c>
-      <c r="G36" s="41">
-        <v>7.2600954788261243E-2</v>
+      <c r="G36" s="46">
+        <v>0.3750816335875482</v>
       </c>
       <c r="H36" s="5"/>
       <c r="I36" s="37">
         <v>0.35</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="18" t="s">
         <v>97</v>
       </c>
@@ -2073,20 +2092,20 @@
         <v>71</v>
       </c>
       <c r="E37" s="41">
-        <v>0.30424354122188407</v>
+        <v>0.35426701115566217</v>
       </c>
       <c r="F37" s="41">
         <v>0.19833965145279159</v>
       </c>
-      <c r="G37" s="41">
-        <v>0.15426701115566219</v>
+      <c r="G37" s="45">
+        <v>0.30424354122188407</v>
       </c>
       <c r="H37" s="5"/>
       <c r="I37" s="36">
         <v>0.33</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="15" t="s">
         <v>0</v>
       </c>
@@ -2100,20 +2119,20 @@
         <v>74</v>
       </c>
       <c r="E38" s="41">
-        <v>0.17566286965747391</v>
+        <v>0.21425110586254825</v>
       </c>
       <c r="F38" s="41">
         <v>0.31665697232930667</v>
       </c>
-      <c r="G38" s="41">
-        <v>1.425110586254825E-2</v>
+      <c r="G38" s="46">
+        <v>0.40066286965747389</v>
       </c>
       <c r="H38" s="5"/>
       <c r="I38" s="37">
         <v>0.3</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="15" t="s">
         <v>86</v>
       </c>
@@ -2127,20 +2146,20 @@
         <v>66</v>
       </c>
       <c r="E39" s="41">
-        <v>0.15686652240449919</v>
+        <v>0.24211207938461454</v>
       </c>
       <c r="F39" s="41">
         <v>0.301078714228045</v>
       </c>
-      <c r="G39" s="41">
-        <v>4.2112079384614517E-2</v>
+      <c r="G39" s="45">
+        <v>0.3818665224044992</v>
       </c>
       <c r="H39" s="5"/>
       <c r="I39" s="36">
         <v>0.1</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="15" t="s">
         <v>88</v>
       </c>
@@ -2154,20 +2173,20 @@
         <v>22</v>
       </c>
       <c r="E40" s="41">
-        <v>0.1006029307227007</v>
+        <v>0.56144490183449025</v>
       </c>
       <c r="F40" s="41">
         <v>1.7423670377983931E-2</v>
       </c>
-      <c r="G40" s="41">
-        <v>0.36144490183449018</v>
+      <c r="G40" s="46">
+        <v>0.32560293072270069</v>
       </c>
       <c r="H40" s="5"/>
       <c r="I40" s="37">
         <v>0.05</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="18" t="s">
         <v>90</v>
       </c>
@@ -2181,23 +2200,26 @@
         <v>20</v>
       </c>
       <c r="E41" s="41">
-        <v>0.3756414468077684</v>
+        <v>0.35094494819206157</v>
       </c>
       <c r="F41" s="41">
         <v>0.15391370463626289</v>
       </c>
-      <c r="G41" s="41">
-        <v>0.25094494819206159</v>
+      <c r="G41" s="45">
+        <v>0.3756414468077684</v>
       </c>
       <c r="H41" s="5"/>
       <c r="I41" s="36">
         <v>0.22</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D43" t="s">
+        <v>127</v>
+      </c>
       <c r="E43" s="32">
         <f>COUNTIF(Table1[tf_idf],"&gt;"&amp;$I$43)</f>
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="F43" s="32">
         <f>COUNTIF(Table1[widf],"&gt;"&amp;$I$43)</f>
@@ -2205,7 +2227,7 @@
       </c>
       <c r="G43" s="32">
         <f>COUNTIF(Table1[midf],"&gt;"&amp;$I$43)</f>
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="H43" t="s">
         <v>126</v>
@@ -2214,11 +2236,14 @@
         <f>AVERAGE(Table1[lsa.colorado.edu (general 1st year college)])</f>
         <v>0.29450000000000004</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K43" s="32"/>
+      <c r="L43" s="32"/>
+      <c r="M43" s="32"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E44" s="32"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="32" t="s">
         <v>15</v>
       </c>
@@ -2231,7 +2256,7 @@
       <c r="D45" s="32"/>
       <c r="E45" s="32"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="32"/>
       <c r="B46" s="32" t="s">
         <v>110</v>
@@ -2241,8 +2266,11 @@
       </c>
       <c r="D46" s="32"/>
       <c r="E46" s="32"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I46">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="32"/>
       <c r="B47" s="32" t="s">
         <v>121</v>
@@ -2252,15 +2280,18 @@
       </c>
       <c r="D47" s="32"/>
       <c r="E47" s="32"/>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I47">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="32"/>
       <c r="B48" s="32"/>
       <c r="C48" s="32"/>
       <c r="D48" s="32"/>
       <c r="E48" s="32"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="32" t="s">
         <v>0</v>
       </c>
@@ -2273,7 +2304,7 @@
       <c r="D49" s="32"/>
       <c r="E49" s="32"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="32"/>
       <c r="B50" s="32" t="s">
         <v>116</v>
@@ -2283,8 +2314,11 @@
       </c>
       <c r="D50" s="32"/>
       <c r="E50" s="32"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I50">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="32"/>
       <c r="B51" s="32" t="s">
         <v>117</v>
@@ -2294,15 +2328,18 @@
       </c>
       <c r="D51" s="32"/>
       <c r="E51" s="32"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I51">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="32"/>
       <c r="B52" s="32"/>
       <c r="C52" s="32"/>
       <c r="D52" s="32"/>
       <c r="E52" s="32"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="32" t="s">
         <v>81</v>
       </c>
@@ -2315,7 +2352,7 @@
       <c r="D53" s="32"/>
       <c r="E53" s="32"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="32"/>
       <c r="B54" s="32" t="s">
         <v>120</v>
@@ -2324,8 +2361,11 @@
         <v>122</v>
       </c>
       <c r="D54" s="32"/>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I54">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="32"/>
       <c r="B55" s="32" t="s">
         <v>123</v>
@@ -2334,6 +2374,9 @@
         <v>124</v>
       </c>
       <c r="D55" s="32"/>
+      <c r="I55">
+        <v>0.73</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/4. cosine similarity (synonym)/rekap.xlsx
+++ b/4. cosine similarity (synonym)/rekap.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="138">
   <si>
     <t>term</t>
   </si>
@@ -442,6 +442,36 @@
   </si>
   <si>
     <t>over average</t>
+  </si>
+  <si>
+    <t>definition</t>
+  </si>
+  <si>
+    <t>skenario 1</t>
+  </si>
+  <si>
+    <t>skenario 2</t>
+  </si>
+  <si>
+    <t>skenario 3</t>
+  </si>
+  <si>
+    <t>skenario 4</t>
+  </si>
+  <si>
+    <t>skenario 5</t>
+  </si>
+  <si>
+    <t>skenario 6</t>
+  </si>
+  <si>
+    <t>sentence 1</t>
+  </si>
+  <si>
+    <t>sentence 2</t>
+  </si>
+  <si>
+    <t>similarity</t>
   </si>
 </sst>
 </file>
@@ -551,7 +581,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -599,41 +629,15 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="10">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
       <fill>
@@ -672,6 +676,36 @@
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
     </dxf>
@@ -743,11 +777,11 @@
     <tableColumn id="4" name="ref" dataDxfId="7"/>
     <tableColumn id="2" name="term_stemmed" dataDxfId="6"/>
     <tableColumn id="6" name="ref_stemmed" dataDxfId="5"/>
-    <tableColumn id="7" name="tf_idf" dataDxfId="1"/>
-    <tableColumn id="8" name="widf" dataDxfId="4"/>
-    <tableColumn id="9" name="midf" dataDxfId="0"/>
-    <tableColumn id="1" name="keterangan" dataDxfId="3"/>
-    <tableColumn id="5" name="lsa.colorado.edu (general 1st year college)" dataDxfId="2"/>
+    <tableColumn id="7" name="tf_idf" dataDxfId="4"/>
+    <tableColumn id="8" name="widf" dataDxfId="3"/>
+    <tableColumn id="9" name="midf" dataDxfId="2"/>
+    <tableColumn id="1" name="keterangan" dataDxfId="1"/>
+    <tableColumn id="5" name="lsa.colorado.edu (general 1st year college)" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1040,16 +1074,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P55"/>
+  <dimension ref="A1:P56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="27.28515625" bestFit="1" customWidth="1"/>
@@ -2213,22 +2247,25 @@
         <v>0.22</v>
       </c>
     </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42" s="18"/>
+      <c r="B42" s="18"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="41"/>
+      <c r="F42" s="41"/>
+      <c r="G42" s="47"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="47"/>
+    </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D43" t="s">
-        <v>127</v>
-      </c>
-      <c r="E43" s="32">
-        <f>COUNTIF(Table1[tf_idf],"&gt;"&amp;$I$43)</f>
-        <v>13</v>
-      </c>
-      <c r="F43" s="32">
-        <f>COUNTIF(Table1[widf],"&gt;"&amp;$I$43)</f>
-        <v>34</v>
-      </c>
-      <c r="G43" s="32">
-        <f>COUNTIF(Table1[midf],"&gt;"&amp;$I$43)</f>
-        <v>26</v>
-      </c>
+      <c r="A43" s="18"/>
+      <c r="B43" s="18"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="19"/>
+      <c r="E43" s="41"/>
+      <c r="F43" s="41"/>
+      <c r="G43" s="47"/>
       <c r="H43" t="s">
         <v>126</v>
       </c>
@@ -2236,149 +2273,197 @@
         <f>AVERAGE(Table1[lsa.colorado.edu (general 1st year college)])</f>
         <v>0.29450000000000004</v>
       </c>
-      <c r="K43" s="32"/>
-      <c r="L43" s="32"/>
-      <c r="M43" s="32"/>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E44" s="32"/>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A45" s="32" t="s">
+      <c r="D45" t="s">
+        <v>127</v>
+      </c>
+      <c r="E45" s="32">
+        <f>COUNTIF(Table1[tf_idf],"&gt;"&amp;$I$43)</f>
+        <v>13</v>
+      </c>
+      <c r="F45" s="32">
+        <f>COUNTIF(Table1[widf],"&gt;"&amp;$I$43)</f>
+        <v>34</v>
+      </c>
+      <c r="G45" s="32">
+        <f>COUNTIF(Table1[midf],"&gt;"&amp;$I$43)</f>
+        <v>26</v>
+      </c>
+      <c r="H45" s="32">
+        <f>COUNTIF(Table1[keterangan],"&gt;"&amp;$I$43)</f>
+        <v>0</v>
+      </c>
+      <c r="I45" s="32">
+        <f>COUNTIF(Table1[lsa.colorado.edu (general 1st year college)],"&gt;"&amp;$I$43)</f>
+        <v>23</v>
+      </c>
+      <c r="K45" s="32"/>
+      <c r="L45" s="32"/>
+      <c r="M45" s="32"/>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E46" s="32"/>
+      <c r="F46" s="32"/>
+      <c r="G46" s="32"/>
+      <c r="H46" s="32"/>
+      <c r="I46" s="32"/>
+      <c r="K46" s="32"/>
+      <c r="L46" s="32"/>
+      <c r="M46" s="32"/>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C47" t="s">
+        <v>135</v>
+      </c>
+      <c r="D47" t="s">
+        <v>136</v>
+      </c>
+      <c r="E47" s="32" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="B45" s="32" t="s">
+      <c r="B48" t="s">
+        <v>128</v>
+      </c>
+      <c r="C48" s="32" t="s">
         <v>107</v>
       </c>
-      <c r="C45" s="32" t="s">
+      <c r="D48" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="D45" s="32"/>
-      <c r="E45" s="32"/>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A46" s="32"/>
-      <c r="B46" s="32" t="s">
+      <c r="E48" s="32"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="48"/>
+      <c r="B49" t="s">
+        <v>129</v>
+      </c>
+      <c r="C49" s="32" t="s">
         <v>110</v>
       </c>
-      <c r="C46" s="32" t="s">
+      <c r="D49" s="32" t="s">
         <v>109</v>
       </c>
-      <c r="D46" s="32"/>
-      <c r="E46" s="32"/>
-      <c r="I46">
+      <c r="E49">
         <v>0.39</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A47" s="32"/>
-      <c r="B47" s="32" t="s">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="48"/>
+      <c r="B50" t="s">
+        <v>130</v>
+      </c>
+      <c r="C50" s="32" t="s">
         <v>121</v>
       </c>
-      <c r="C47" s="32" t="s">
+      <c r="D50" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="D47" s="32"/>
-      <c r="E47" s="32"/>
-      <c r="I47">
+      <c r="E50">
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A48" s="32"/>
-      <c r="B48" s="32"/>
-      <c r="C48" s="32"/>
-      <c r="D48" s="32"/>
-      <c r="E48" s="32"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="32" t="s">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B49" s="32" t="s">
+      <c r="B51" t="s">
+        <v>128</v>
+      </c>
+      <c r="C51" s="32" t="s">
         <v>112</v>
       </c>
-      <c r="C49" s="32" t="s">
+      <c r="D51" s="32" t="s">
         <v>115</v>
       </c>
-      <c r="D49" s="32"/>
-      <c r="E49" s="32"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="32"/>
-      <c r="B50" s="32" t="s">
+      <c r="E51" s="32"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="48"/>
+      <c r="B52" t="s">
+        <v>131</v>
+      </c>
+      <c r="C52" s="32" t="s">
         <v>116</v>
       </c>
-      <c r="C50" s="32" t="s">
+      <c r="D52" s="32" t="s">
         <v>113</v>
       </c>
-      <c r="D50" s="32"/>
-      <c r="E50" s="32"/>
-      <c r="I50">
+      <c r="E52">
         <v>0.52</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="32"/>
-      <c r="B51" s="32" t="s">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="48"/>
+      <c r="B53" t="s">
+        <v>132</v>
+      </c>
+      <c r="C53" s="32" t="s">
         <v>117</v>
       </c>
-      <c r="C51" s="32" t="s">
+      <c r="D53" s="32" t="s">
         <v>114</v>
       </c>
-      <c r="D51" s="32"/>
-      <c r="E51" s="32"/>
-      <c r="I51">
+      <c r="E53">
         <v>0.49</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="32"/>
-      <c r="B52" s="32"/>
-      <c r="C52" s="32"/>
-      <c r="D52" s="32"/>
-      <c r="E52" s="32"/>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="32" t="s">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="48" t="s">
         <v>81</v>
       </c>
-      <c r="B53" s="32" t="s">
+      <c r="B54" t="s">
+        <v>128</v>
+      </c>
+      <c r="C54" s="32" t="s">
         <v>118</v>
       </c>
-      <c r="C53" s="32" t="s">
+      <c r="D54" s="32" t="s">
         <v>119</v>
       </c>
-      <c r="D53" s="32"/>
-      <c r="E53" s="32"/>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="32"/>
-      <c r="B54" s="32" t="s">
+      <c r="E54" s="32"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="48"/>
+      <c r="B55" t="s">
+        <v>133</v>
+      </c>
+      <c r="C55" s="32" t="s">
         <v>120</v>
       </c>
-      <c r="C54" s="32" t="s">
+      <c r="D55" s="32" t="s">
         <v>122</v>
       </c>
-      <c r="D54" s="32"/>
-      <c r="I54">
+      <c r="E55">
         <v>0.73</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="32"/>
-      <c r="B55" s="32" t="s">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="48"/>
+      <c r="B56" t="s">
+        <v>134</v>
+      </c>
+      <c r="C56" s="32" t="s">
         <v>123</v>
       </c>
-      <c r="C55" s="32" t="s">
+      <c r="D56" s="32" t="s">
         <v>124</v>
       </c>
-      <c r="D55" s="32"/>
-      <c r="I55">
+      <c r="E56">
         <v>0.73</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="A54:A56"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
